--- a/notes/STK_MASTER.xlsx
+++ b/notes/STK_MASTER.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{854ECFA1-F6CD-4456-85DD-EEA1D968A455}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B946555F-354B-45AB-A8A9-75604EC6B1C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12349,8 +12349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="C325" sqref="C325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/notes/STK_MASTER.xlsx
+++ b/notes/STK_MASTER.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B946555F-354B-45AB-A8A9-75604EC6B1C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D9E29242-10EF-4E51-A746-D9B67E8E71FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12349,8 +12349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
